--- a/0406.xlsx
+++ b/0406.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
   <si>
     <t>zad1</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>zad33</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -205,6 +223,655 @@
         <a:xfrm>
           <a:off x="11582400" y="4953000"/>
           <a:ext cx="7392432" cy="2467319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obraz 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obraz 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obraz 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Obraz 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Obraz 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Obraz 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Obraz 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Obraz 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Obraz 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Obraz 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7077075" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>343888</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>143105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Obraz 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="11449050"/>
+          <a:ext cx="7078063" cy="1648055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -479,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1855,7 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F49" s="4"/>
       <c r="G49">
         <v>6</v>
@@ -1198,7 +1865,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F50" s="4"/>
       <c r="G50">
         <v>6</v>
@@ -1210,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F51" s="4"/>
       <c r="G51">
         <v>6</v>
@@ -1220,7 +1887,7 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F52" s="4"/>
       <c r="G52">
         <v>7</v>
@@ -1232,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F53" s="4"/>
       <c r="G53">
         <v>7</v>
@@ -1242,7 +1909,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F54" s="4"/>
       <c r="G54">
         <v>7</v>
@@ -1252,7 +1919,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
       <c r="G55">
         <v>8</v>
@@ -1262,7 +1929,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F56" s="4"/>
       <c r="G56">
         <v>8</v>
@@ -1272,7 +1939,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F57" s="4"/>
       <c r="G57">
         <v>9</v>
@@ -1282,7 +1949,7 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F58" s="4"/>
       <c r="G58">
         <v>9</v>
@@ -1292,26 +1959,68 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>0.67</v>
+      </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>0.05</v>
+      </c>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <f>15*B63^2/0.5^2</f>
+        <v>26.934000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <f>_xlfn.CHISQ.INV(1-B64,B62-1)</f>
+        <v>24.995790139728623</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="G37:H59">
